--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itga1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Itga1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H2">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J2">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N2">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O2">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P2">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q2">
-        <v>2.776656569085999</v>
+        <v>0.594186451488</v>
       </c>
       <c r="R2">
-        <v>24.98990912177399</v>
+        <v>5.347678063392</v>
       </c>
       <c r="S2">
-        <v>0.2748100731552676</v>
+        <v>0.1057434035460475</v>
       </c>
       <c r="T2">
-        <v>0.2748100731552677</v>
+        <v>0.1057434035460475</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H3">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J3">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P3">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q3">
-        <v>0.173296390496</v>
+        <v>0.04126619750399999</v>
       </c>
       <c r="R3">
-        <v>1.559667514464</v>
+        <v>0.3713957775359999</v>
       </c>
       <c r="S3">
-        <v>0.01715141666418831</v>
+        <v>0.00734387020193525</v>
       </c>
       <c r="T3">
-        <v>0.01715141666418832</v>
+        <v>0.00734387020193525</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H4">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J4">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N4">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O4">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P4">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q4">
-        <v>0.1844161639923333</v>
+        <v>0.108709543488</v>
       </c>
       <c r="R4">
-        <v>1.659745475931</v>
+        <v>0.9783858913920001</v>
       </c>
       <c r="S4">
-        <v>0.01825195815787519</v>
+        <v>0.01934631309342525</v>
       </c>
       <c r="T4">
-        <v>0.01825195815787519</v>
+        <v>0.01934631309342525</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H5">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J5">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N5">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O5">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P5">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q5">
-        <v>1.255590641810666</v>
+        <v>0.237119457792</v>
       </c>
       <c r="R5">
-        <v>11.300315776296</v>
+        <v>2.134075120128</v>
       </c>
       <c r="S5">
-        <v>0.1242677830491077</v>
+        <v>0.04219856991206709</v>
       </c>
       <c r="T5">
-        <v>0.1242677830491077</v>
+        <v>0.04219856991206709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H6">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J6">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N6">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O6">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P6">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q6">
-        <v>0.03523762176533333</v>
+        <v>0.009162041952000001</v>
       </c>
       <c r="R6">
-        <v>0.3171385958879999</v>
+        <v>0.08245837756800001</v>
       </c>
       <c r="S6">
-        <v>0.003487522916215922</v>
+        <v>0.001630507557030217</v>
       </c>
       <c r="T6">
-        <v>0.003487522916215923</v>
+        <v>0.001630507557030217</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.05926299999999999</v>
+        <v>0.014112</v>
       </c>
       <c r="H7">
-        <v>0.177789</v>
+        <v>0.042336</v>
       </c>
       <c r="I7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="J7">
-        <v>0.4396528061129863</v>
+        <v>0.1773673913134555</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N7">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O7">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P7">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q7">
-        <v>0.01701551354266666</v>
+        <v>0.00620761008</v>
       </c>
       <c r="R7">
-        <v>0.153139621884</v>
+        <v>0.05586849072</v>
       </c>
       <c r="S7">
-        <v>0.001684052170331565</v>
+        <v>0.001104727002950199</v>
       </c>
       <c r="T7">
-        <v>0.001684052170331565</v>
+        <v>0.001104727002950199</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H8">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I8">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J8">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>46.85312199999999</v>
+        <v>42.105049</v>
       </c>
       <c r="N8">
-        <v>140.559366</v>
+        <v>126.315147</v>
       </c>
       <c r="O8">
-        <v>0.6250615697984291</v>
+        <v>0.596182887750605</v>
       </c>
       <c r="P8">
-        <v>0.6250615697984292</v>
+        <v>0.5961828877506051</v>
       </c>
       <c r="Q8">
-        <v>3.538910010903999</v>
+        <v>2.495271518887</v>
       </c>
       <c r="R8">
-        <v>31.850190098136</v>
+        <v>22.457443669983</v>
       </c>
       <c r="S8">
-        <v>0.3502514966431614</v>
+        <v>0.4440668455463019</v>
       </c>
       <c r="T8">
-        <v>0.3502514966431616</v>
+        <v>0.4440668455463018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H9">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I9">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J9">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="P9">
-        <v>0.03901127531932681</v>
+        <v>0.04140484982922635</v>
       </c>
       <c r="Q9">
-        <v>0.220870070144</v>
+        <v>0.173296390496</v>
       </c>
       <c r="R9">
-        <v>1.987830631296</v>
+        <v>1.559667514464</v>
       </c>
       <c r="S9">
-        <v>0.02185985865513848</v>
+        <v>0.03084040389578294</v>
       </c>
       <c r="T9">
-        <v>0.02185985865513849</v>
+        <v>0.03084040389578293</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
@@ -1039,46 +1039,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H10">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I10">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J10">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>3.111826333333333</v>
+        <v>7.703340666666667</v>
       </c>
       <c r="N10">
-        <v>9.335478999999999</v>
+        <v>23.110022</v>
       </c>
       <c r="O10">
-        <v>0.0415144812090307</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="P10">
-        <v>0.04151448120903071</v>
+        <v>0.1090748020262369</v>
       </c>
       <c r="Q10">
-        <v>0.2350424666093333</v>
+        <v>0.4565230779286667</v>
       </c>
       <c r="R10">
-        <v>2.115382199484</v>
+        <v>4.108707701358</v>
       </c>
       <c r="S10">
-        <v>0.02326252305115551</v>
+        <v>0.08124437024203944</v>
       </c>
       <c r="T10">
-        <v>0.02326252305115552</v>
+        <v>0.08124437024203943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H11">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I11">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J11">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.18675466666667</v>
+        <v>16.80268266666667</v>
       </c>
       <c r="N11">
-        <v>63.560264</v>
+        <v>50.40804800000001</v>
       </c>
       <c r="O11">
-        <v>0.2826498121273724</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="P11">
-        <v>0.2826498121273725</v>
+        <v>0.2379161671126513</v>
       </c>
       <c r="Q11">
-        <v>1.600277953482667</v>
+        <v>0.9957773828746669</v>
       </c>
       <c r="R11">
-        <v>14.402501581344</v>
+        <v>8.961996445872002</v>
       </c>
       <c r="S11">
-        <v>0.1583820290782647</v>
+        <v>0.1772118656957789</v>
       </c>
       <c r="T11">
-        <v>0.1583820290782648</v>
+        <v>0.1772118656957789</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H12">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I12">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J12">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5945973333333333</v>
+        <v>0.6492376666666667</v>
       </c>
       <c r="N12">
-        <v>1.783792</v>
+        <v>1.947713</v>
       </c>
       <c r="O12">
-        <v>0.007932447758151381</v>
+        <v>0.009192825947068677</v>
       </c>
       <c r="P12">
-        <v>0.007932447758151382</v>
+        <v>0.009192825947068679</v>
       </c>
       <c r="Q12">
-        <v>0.04491112578133333</v>
+        <v>0.03847577183966667</v>
       </c>
       <c r="R12">
-        <v>0.404200132032</v>
+        <v>0.3462819465570001</v>
       </c>
       <c r="S12">
-        <v>0.004444924841935458</v>
+        <v>0.006847276739815885</v>
       </c>
       <c r="T12">
-        <v>0.00444492484193546</v>
+        <v>0.006847276739815884</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1225,46 +1225,418 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.075532</v>
+        <v>0.059263</v>
       </c>
       <c r="H13">
-        <v>0.226596</v>
+        <v>0.177789</v>
       </c>
       <c r="I13">
-        <v>0.5603471938870136</v>
+        <v>0.7448500362393221</v>
       </c>
       <c r="J13">
-        <v>0.5603471938870137</v>
+        <v>0.7448500362393219</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2871186666666667</v>
+        <v>0.4398816666666667</v>
       </c>
       <c r="N13">
-        <v>0.861356</v>
+        <v>1.319645</v>
       </c>
       <c r="O13">
-        <v>0.003830413787689507</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="P13">
-        <v>0.003830413787689508</v>
+        <v>0.006228467334211686</v>
       </c>
       <c r="Q13">
-        <v>0.02168664713066667</v>
+        <v>0.02606870721166667</v>
       </c>
       <c r="R13">
-        <v>0.195179824176</v>
+        <v>0.234618364905</v>
       </c>
       <c r="S13">
-        <v>0.002146361617357942</v>
+        <v>0.004639274119603008</v>
       </c>
       <c r="T13">
-        <v>0.002146361617357943</v>
+        <v>0.004639274119603007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.018566</v>
+      </c>
+      <c r="I14">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J14">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>42.105049</v>
+      </c>
+      <c r="N14">
+        <v>126.315147</v>
+      </c>
+      <c r="O14">
+        <v>0.596182887750605</v>
+      </c>
+      <c r="P14">
+        <v>0.5961828877506051</v>
+      </c>
+      <c r="Q14">
+        <v>0.2605741132446667</v>
+      </c>
+      <c r="R14">
+        <v>2.345167019202</v>
+      </c>
+      <c r="S14">
+        <v>0.04637263865825579</v>
+      </c>
+      <c r="T14">
+        <v>0.04637263865825579</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.018566</v>
+      </c>
+      <c r="I15">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J15">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.924192</v>
+      </c>
+      <c r="N15">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.04140484982922635</v>
+      </c>
+      <c r="P15">
+        <v>0.04140484982922635</v>
+      </c>
+      <c r="Q15">
+        <v>0.01809684955733333</v>
+      </c>
+      <c r="R15">
+        <v>0.162871646016</v>
+      </c>
+      <c r="S15">
+        <v>0.003220575731508169</v>
+      </c>
+      <c r="T15">
+        <v>0.003220575731508169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.018566</v>
+      </c>
+      <c r="I16">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J16">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.703340666666667</v>
+      </c>
+      <c r="N16">
+        <v>23.110022</v>
+      </c>
+      <c r="O16">
+        <v>0.1090748020262369</v>
+      </c>
+      <c r="P16">
+        <v>0.1090748020262369</v>
+      </c>
+      <c r="Q16">
+        <v>0.04767340760577778</v>
+      </c>
+      <c r="R16">
+        <v>0.429060668452</v>
+      </c>
+      <c r="S16">
+        <v>0.00848411869077223</v>
+      </c>
+      <c r="T16">
+        <v>0.00848411869077223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.018566</v>
+      </c>
+      <c r="I17">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J17">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>16.80268266666667</v>
+      </c>
+      <c r="N17">
+        <v>50.40804800000001</v>
+      </c>
+      <c r="O17">
+        <v>0.2379161671126513</v>
+      </c>
+      <c r="P17">
+        <v>0.2379161671126513</v>
+      </c>
+      <c r="Q17">
+        <v>0.1039862021297778</v>
+      </c>
+      <c r="R17">
+        <v>0.9358758191680001</v>
+      </c>
+      <c r="S17">
+        <v>0.01850573150480531</v>
+      </c>
+      <c r="T17">
+        <v>0.01850573150480531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H18">
+        <v>0.018566</v>
+      </c>
+      <c r="I18">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J18">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6492376666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.947713</v>
+      </c>
+      <c r="O18">
+        <v>0.009192825947068677</v>
+      </c>
+      <c r="P18">
+        <v>0.009192825947068679</v>
+      </c>
+      <c r="Q18">
+        <v>0.004017915506444444</v>
+      </c>
+      <c r="R18">
+        <v>0.03616123955800001</v>
+      </c>
+      <c r="S18">
+        <v>0.0007150416502225767</v>
+      </c>
+      <c r="T18">
+        <v>0.0007150416502225767</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.006188666666666666</v>
+      </c>
+      <c r="H19">
+        <v>0.018566</v>
+      </c>
+      <c r="I19">
+        <v>0.07778257244722256</v>
+      </c>
+      <c r="J19">
+        <v>0.07778257244722254</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.4398816666666667</v>
+      </c>
+      <c r="N19">
+        <v>1.319645</v>
+      </c>
+      <c r="O19">
+        <v>0.006228467334211686</v>
+      </c>
+      <c r="P19">
+        <v>0.006228467334211686</v>
+      </c>
+      <c r="Q19">
+        <v>0.002722281007777778</v>
+      </c>
+      <c r="R19">
+        <v>0.02450052907</v>
+      </c>
+      <c r="S19">
+        <v>0.0004844662116584796</v>
+      </c>
+      <c r="T19">
+        <v>0.0004844662116584795</v>
       </c>
     </row>
   </sheetData>
